--- a/biology/Médecine/Medard_Boss/Medard_Boss.xlsx
+++ b/biology/Médecine/Medard_Boss/Medard_Boss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Medard Boss, né le 4 octobre 1903 à Saint-Gall et mort le 21 décembre 1990 à Zollikon en Suisse, est un psychiatre suisse[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Medard Boss, né le 4 octobre 1903 à Saint-Gall et mort le 21 décembre 1990 à Zollikon en Suisse, est un psychiatre suisse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en psychiatrie à Zurich, élève de d'Eugen Bleuler, de Freud et ami de Heidegger, il collabore également avec Carl Gustav Jung. Il est notamment connu pour une "interprétation - agie" assez hardie. [réf. souhaitée]
-Medard Boss se différencie de Freud en fondant sa psychologie des profondeurs sur la Daseinsanalyse fondée par Ludwig Binswanger. L'analyse du rêve y occupe une place importante[2].
+Medard Boss se différencie de Freud en fondant sa psychologie des profondeurs sur la Daseinsanalyse fondée par Ludwig Binswanger. L'analyse du rêve y occupe une place importante.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>L'analyse des rêves selon Medard Boss</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le psychiatre Medard Boss, l'interprétation des rêves est arbitraire. Il s'oppose à Freud quant à la réalité d'un contenu latent onirique et ne croit pas que le contenu manifeste d'un rêve ne puisse pas signifier ce qu'il prétend être. Il oppose aux désirs inconscients de Freud l'intentionnalité du désir. En d'autres termes, le rêve se donne à voir pour ce qu'il est. L'idée générale de Medard Boss repose sur l'introduction du concept allemand du Dasein, l'« être-là », l'« être au monde ». Dans cette perspective, il existerait un être là dans le rêve qui est tout simplement un autre mode d'être au monde que la conscience ordinaire dans l'activité de veille. Medard Boss renonce par conséquent à l'interprétation pour elle-même. L'analyse s'entend ainsi dans sa définition philosophique, comme une « méthode qui vise à comprendre un objet en le décomposant en ses constituants ».
 </t>
@@ -574,7 +590,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il publie plus de 120 articles et 12 livres, dont :
 Es träumte mir vergangene Nacht (1975, traduction française Il m'est venu en rêve...), essais théoriques et pratiques sur l'activité onirique.
